--- a/Excels/Lista2.xlsx
+++ b/Excels/Lista2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\UnificadorDeTelefonos\UnificadorTelefonos\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9482E839-F1B2-4873-9788-5FC269074BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A219A453-4F3E-4C2A-8DAD-E9213C84C6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{84479771-C07B-486D-AE1E-9C14184AEFD7}"/>
   </bookViews>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC64540-7719-42EF-8234-DD2ACAAFD174}">
-  <dimension ref="J1:J11"/>
+  <dimension ref="M15:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,58 +454,58 @@
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J1" s="1" t="s">
+    <row r="15" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J2" t="s">
+    <row r="16" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
+    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
+    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
+    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
+    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J9" t="s">
+    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
+    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
         <v>10</v>
       </c>
     </row>
